--- a/graphics_generation/elisa/tecan/elisa_anti_pvx_60_min.xlsx
+++ b/graphics_generation/elisa/tecan/elisa_anti_pvx_60_min.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Programm: Tecan i-control</t>
   </si>
@@ -162,13 +162,13 @@
     <t>Datum:</t>
   </si>
   <si>
-    <t>26.06.2025</t>
+    <t>30.06.2025</t>
   </si>
   <si>
     <t>Zeit:</t>
   </si>
   <si>
-    <t>15:52:40</t>
+    <t>14:52:48</t>
   </si>
   <si>
     <t>System</t>
@@ -234,16 +234,16 @@
     <t>Bereich der Platte</t>
   </si>
   <si>
-    <t>B1-G12</t>
+    <t>B2-G11</t>
   </si>
   <si>
     <t>Startzeit:</t>
   </si>
   <si>
-    <t>26.06.2025 15:52:45</t>
-  </si>
-  <si>
-    <t>Temperatur: 26.2 °C</t>
+    <t>30.06.2025 14:52:53</t>
+  </si>
+  <si>
+    <t>Temperatur: 29.1 °C</t>
   </si>
   <si>
     <t>&lt;&gt;</t>
@@ -270,7 +270,10 @@
     <t>Endzeit:</t>
   </si>
   <si>
-    <t>26.06.2025 15:53:44</t>
+    <t>OVER</t>
+  </si>
+  <si>
+    <t>30.06.2025 14:53:43</t>
   </si>
 </sst>
 </file>
@@ -436,11 +439,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,9 +732,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -846,12 +850,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -859,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -870,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -881,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -889,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -900,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -908,7 +912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -916,304 +920,262 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K28" s="3">
-        <v>10</v>
-      </c>
-      <c r="L28" s="3">
         <v>11</v>
       </c>
-      <c r="M28" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.37099999189376831</v>
+        <v>1.2972999811172485</v>
       </c>
       <c r="C29">
-        <v>0.22040000557899475</v>
+        <v>1.1518000364303589</v>
       </c>
       <c r="D29">
-        <v>0.22460000216960907</v>
+        <v>1.0769000053405762</v>
       </c>
       <c r="E29">
-        <v>0.14659999310970306</v>
+        <v>3.1742000579833984</v>
       </c>
       <c r="F29">
-        <v>0.16009999811649323</v>
+        <v>3.1789000034332275</v>
       </c>
       <c r="G29">
-        <v>0.1590999960899353</v>
+        <v>3.2051999568939209</v>
       </c>
       <c r="H29">
-        <v>0.14059999585151672</v>
+        <v>3.9228000640869141</v>
       </c>
       <c r="I29">
-        <v>0.15049999952316284</v>
-      </c>
-      <c r="J29">
-        <v>0.16279999911785126</v>
+        <v>3.900399923324585</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.31119999289512634</v>
-      </c>
-      <c r="L29">
-        <v>0.36750000715255737</v>
-      </c>
-      <c r="M29">
-        <v>0.50139999389648438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.41870000958442688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.27849999070167542</v>
+        <v>1.0535999536514282</v>
       </c>
       <c r="C30">
-        <v>0.1932000070810318</v>
+        <v>0.99739998579025269</v>
       </c>
       <c r="D30">
-        <v>0.19990000128746033</v>
+        <v>0.94590002298355103</v>
       </c>
       <c r="E30">
-        <v>0.13680000603199005</v>
+        <v>3.0601000785827637</v>
       </c>
       <c r="F30">
-        <v>0.15389999747276306</v>
+        <v>3.0532000064849854</v>
       </c>
       <c r="G30">
-        <v>0.11050000041723251</v>
+        <v>2.9737999439239502</v>
       </c>
       <c r="H30">
-        <v>0.14779999852180481</v>
+        <v>3.3996000289916992</v>
       </c>
       <c r="I30">
-        <v>0.13729999959468842</v>
+        <v>3.3357999324798584</v>
       </c>
       <c r="J30">
-        <v>0.14319999516010284</v>
+        <v>3.3125</v>
       </c>
       <c r="K30">
-        <v>0.24619999527931213</v>
-      </c>
-      <c r="L30">
-        <v>0.23899999260902405</v>
-      </c>
-      <c r="M30">
-        <v>0.29199999570846558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.2175000011920929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.23939999938011169</v>
+        <v>1.2060999870300293</v>
       </c>
       <c r="C31">
-        <v>0.16539999842643738</v>
+        <v>1.1628999710083008</v>
       </c>
       <c r="D31">
-        <v>0.16670000553131104</v>
+        <v>1.1619000434875488</v>
       </c>
       <c r="E31">
-        <v>0.13709999620914459</v>
+        <v>0.17669999599456787</v>
       </c>
       <c r="F31">
-        <v>0.12370000034570694</v>
+        <v>0.17380000650882721</v>
       </c>
       <c r="G31">
-        <v>0.14030000567436218</v>
+        <v>0.16410000622272491</v>
       </c>
       <c r="H31">
-        <v>0.12980000674724579</v>
+        <v>2.2295999526977539</v>
       </c>
       <c r="I31">
-        <v>0.12770000100135803</v>
+        <v>2.2097001075744629</v>
       </c>
       <c r="J31">
-        <v>0.13660000264644623</v>
+        <v>2.2551000118255615</v>
       </c>
       <c r="K31">
-        <v>0.19220000505447388</v>
-      </c>
-      <c r="L31">
-        <v>0.19519999623298645</v>
-      </c>
-      <c r="M31">
-        <v>0.21639999747276306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.18299999833106995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.28090000152587891</v>
+        <v>1.1584000587463379</v>
       </c>
       <c r="C32">
-        <v>0.20419999957084656</v>
+        <v>1.1167999505996704</v>
       </c>
       <c r="D32">
-        <v>0.19339999556541443</v>
+        <v>1.1035000085830688</v>
       </c>
       <c r="E32">
-        <v>0.47089999914169312</v>
+        <v>0.17350000143051147</v>
       </c>
       <c r="F32">
-        <v>0.49340000748634338</v>
+        <v>0.18770000338554382</v>
       </c>
       <c r="G32">
-        <v>0.46329998970031738</v>
+        <v>0.1867000013589859</v>
       </c>
       <c r="H32">
-        <v>0.91680002212524414</v>
+        <v>1.4889999628067017</v>
       </c>
       <c r="I32">
-        <v>0.91039997339248657</v>
+        <v>1.5180000066757202</v>
       </c>
       <c r="J32">
-        <v>0.868399977684021</v>
+        <v>1.534000039100647</v>
       </c>
       <c r="K32">
-        <v>0.11490000039339066</v>
-      </c>
-      <c r="L32">
-        <v>0.1234000027179718</v>
-      </c>
-      <c r="M32">
-        <v>0.15860000252723694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.19239999353885651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.31470000743865967</v>
+        <v>0.38319998979568481</v>
       </c>
       <c r="C33">
-        <v>0.1843000054359436</v>
+        <v>0.30480000376701355</v>
       </c>
       <c r="D33">
-        <v>0.18469999730587006</v>
-      </c>
-      <c r="E33">
-        <v>0.42640000581741333</v>
-      </c>
-      <c r="F33">
-        <v>0.42680001258850098</v>
-      </c>
-      <c r="G33">
-        <v>0.43840000033378601</v>
+        <v>0.30199998617172241</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H33">
-        <v>0.59710001945495605</v>
+        <v>1.0568000078201294</v>
       </c>
       <c r="I33">
-        <v>0.60860002040863037</v>
+        <v>1.0453000068664551</v>
       </c>
       <c r="J33">
-        <v>0.58939999341964722</v>
+        <v>1.0918999910354614</v>
       </c>
       <c r="K33">
-        <v>0.11519999802112579</v>
-      </c>
-      <c r="L33">
-        <v>0.12110000103712082</v>
-      </c>
-      <c r="M33">
-        <v>0.18569999933242798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.19390000402927399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.39669999480247498</v>
+        <v>0.52170002460479736</v>
       </c>
       <c r="C34">
-        <v>0.17630000412464142</v>
+        <v>0.36550000309944153</v>
       </c>
       <c r="D34">
-        <v>0.16650000214576721</v>
-      </c>
-      <c r="E34">
-        <v>0.37540000677108765</v>
-      </c>
-      <c r="F34">
-        <v>0.34880000352859497</v>
-      </c>
-      <c r="G34">
-        <v>0.34619998931884766</v>
+        <v>0.36289998888969421</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H34">
-        <v>0.47429999709129333</v>
+        <v>0.68999999761581421</v>
       </c>
       <c r="I34">
-        <v>0.45530000329017639</v>
+        <v>0.68199998140335083</v>
       </c>
       <c r="J34">
-        <v>0.43349999189376831</v>
+        <v>0.68970000743865967</v>
       </c>
       <c r="K34">
-        <v>0.12259999662637711</v>
-      </c>
-      <c r="L34">
-        <v>0.16619999706745148</v>
-      </c>
-      <c r="M34">
-        <v>0.31360000371932983</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.30000001192092896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
